--- a/output/compo fish/stats_comp_prey_vs_not_prey.xlsx
+++ b/output/compo fish/stats_comp_prey_vs_not_prey.xlsx
@@ -467,43 +467,43 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>3.75</v>
+        <v>3.91</v>
       </c>
       <c r="D2" t="n">
-        <v>20433.31</v>
+        <v>20823.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>6.89</v>
+        <v>7.31</v>
       </c>
       <c r="G2" t="n">
-        <v>79.51</v>
+        <v>91.22</v>
       </c>
       <c r="H2" t="n">
-        <v>10712.31</v>
+        <v>10468.56</v>
       </c>
       <c r="I2" t="n">
-        <v>2331.73</v>
+        <v>2475.96</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="K2" t="n">
-        <v>14149.41</v>
+        <v>15371.08</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>16777.16</v>
+        <v>17022.78</v>
       </c>
       <c r="N2" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>60.8</v>
+        <v>66.46</v>
       </c>
     </row>
     <row r="3">
@@ -514,43 +514,43 @@
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="D3" t="n">
-        <v>18953.32</v>
+        <v>20568</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F3" t="n">
-        <v>6.32</v>
+        <v>6.22</v>
       </c>
       <c r="G3" t="n">
-        <v>44.86</v>
+        <v>51.29</v>
       </c>
       <c r="H3" t="n">
-        <v>11098.88</v>
+        <v>10666.53</v>
       </c>
       <c r="I3" t="n">
-        <v>2017.86</v>
+        <v>2146.93</v>
       </c>
       <c r="J3" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
-        <v>11766.62</v>
+        <v>13890.11</v>
       </c>
       <c r="L3" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M3" t="n">
-        <v>17808.39</v>
+        <v>17593.45</v>
       </c>
       <c r="N3" t="n">
-        <v>2.66</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
-        <v>59.95</v>
+        <v>63.54</v>
       </c>
     </row>
     <row r="4">
@@ -561,43 +561,43 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>3.66</v>
       </c>
       <c r="D4" t="n">
-        <v>9342.38</v>
+        <v>9827.54</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>3.63</v>
       </c>
       <c r="G4" t="n">
-        <v>65.72</v>
+        <v>107.58</v>
       </c>
       <c r="H4" t="n">
-        <v>2591.95</v>
+        <v>2008.12</v>
       </c>
       <c r="I4" t="n">
-        <v>771.44</v>
+        <v>960.84</v>
       </c>
       <c r="J4" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="K4" t="n">
-        <v>5141.91</v>
+        <v>5537.32</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
-        <v>5348.13</v>
+        <v>5626.08</v>
       </c>
       <c r="N4" t="n">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="O4" t="n">
-        <v>19.25</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="5">
@@ -608,43 +608,43 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>0.747</v>
+        <v>0.936</v>
       </c>
       <c r="D5" t="n">
-        <v>0.457</v>
+        <v>0.472</v>
       </c>
       <c r="E5" t="n">
-        <v>0.556</v>
+        <v>0.7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.383</v>
+        <v>0.497</v>
       </c>
       <c r="G5" t="n">
-        <v>0.827</v>
+        <v>1.179</v>
       </c>
       <c r="H5" t="n">
-        <v>0.242</v>
+        <v>0.192</v>
       </c>
       <c r="I5" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.331</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.319</v>
-      </c>
       <c r="N5" t="n">
-        <v>0.249</v>
+        <v>0.365</v>
       </c>
       <c r="O5" t="n">
-        <v>0.317</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="6">
@@ -655,43 +655,43 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>0.94</v>
+        <v>0.7</v>
       </c>
       <c r="D6" t="n">
-        <v>8356.99</v>
+        <v>4694.15</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
-        <v>30.22</v>
+        <v>14.12</v>
       </c>
       <c r="H6" t="n">
-        <v>6292.61</v>
+        <v>7046.92</v>
       </c>
       <c r="I6" t="n">
-        <v>1453.47</v>
+        <v>1156.24</v>
       </c>
       <c r="J6" t="n">
-        <v>1.47</v>
+        <v>0.95</v>
       </c>
       <c r="K6" t="n">
-        <v>8447.33</v>
+        <v>7809.54</v>
       </c>
       <c r="L6" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="M6" t="n">
-        <v>9016.22</v>
+        <v>7209.95</v>
       </c>
       <c r="N6" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="O6" t="n">
-        <v>34.3</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="7">
@@ -702,43 +702,43 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>9.2</v>
+        <v>12.66</v>
       </c>
       <c r="D7" t="n">
-        <v>35731.13</v>
+        <v>42456.22</v>
       </c>
       <c r="E7" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="F7" t="n">
-        <v>12.19</v>
+        <v>16.97</v>
       </c>
       <c r="G7" t="n">
-        <v>203.61</v>
+        <v>340.49</v>
       </c>
       <c r="H7" t="n">
-        <v>14638.4</v>
+        <v>13707.61</v>
       </c>
       <c r="I7" t="n">
-        <v>3908.15</v>
+        <v>4539.49</v>
       </c>
       <c r="J7" t="n">
-        <v>5.39</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>21837.16</v>
+        <v>24318.26</v>
       </c>
       <c r="L7" t="n">
-        <v>3.22</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>24570.26</v>
+        <v>28697.95</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>4.03</v>
       </c>
       <c r="O7" t="n">
-        <v>98</v>
+        <v>129.28</v>
       </c>
     </row>
     <row r="8">
@@ -749,43 +749,43 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>4.79</v>
+        <v>4.68</v>
       </c>
       <c r="D8" t="n">
-        <v>19519.97</v>
+        <v>19386.98</v>
       </c>
       <c r="E8" t="n">
         <v>0.09</v>
       </c>
       <c r="F8" t="n">
-        <v>4.77</v>
+        <v>4.83</v>
       </c>
       <c r="G8" t="n">
-        <v>41.24</v>
+        <v>40.03</v>
       </c>
       <c r="H8" t="n">
-        <v>9499.7</v>
+        <v>9585.25</v>
       </c>
       <c r="I8" t="n">
-        <v>1884.74</v>
+        <v>1858.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.53</v>
+        <v>2.36</v>
       </c>
       <c r="K8" t="n">
-        <v>9558.98</v>
+        <v>9344.58</v>
       </c>
       <c r="L8" t="n">
         <v>1.17</v>
       </c>
       <c r="M8" t="n">
-        <v>15615.98</v>
+        <v>15448.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>48.87</v>
+        <v>48.85</v>
       </c>
     </row>
     <row r="9">
@@ -796,43 +796,43 @@
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="D9" t="n">
-        <v>19601.31</v>
+        <v>18114</v>
       </c>
       <c r="E9" t="n">
         <v>0.09</v>
       </c>
       <c r="F9" t="n">
-        <v>3.99</v>
+        <v>4.14</v>
       </c>
       <c r="G9" t="n">
-        <v>30.8</v>
+        <v>29.37</v>
       </c>
       <c r="H9" t="n">
-        <v>8368.82</v>
+        <v>8449.39</v>
       </c>
       <c r="I9" t="n">
-        <v>1728.7</v>
+        <v>1738.99</v>
       </c>
       <c r="J9" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>8142.48</v>
+        <v>8562.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M9" t="n">
-        <v>14590.26</v>
+        <v>15439.49</v>
       </c>
       <c r="N9" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>48.55</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="10">
@@ -843,43 +843,43 @@
         <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>4.27</v>
+        <v>4.66</v>
       </c>
       <c r="D10" t="n">
-        <v>6281.46</v>
+        <v>7561.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F10" t="n">
-        <v>2.06</v>
+        <v>2.37</v>
       </c>
       <c r="G10" t="n">
-        <v>24.48</v>
+        <v>36.28</v>
       </c>
       <c r="H10" t="n">
-        <v>3233.52</v>
+        <v>3312.65</v>
       </c>
       <c r="I10" t="n">
-        <v>546.95</v>
+        <v>567.82</v>
       </c>
       <c r="J10" t="n">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="K10" t="n">
-        <v>4124.67</v>
+        <v>4330.96</v>
       </c>
       <c r="L10" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="M10" t="n">
-        <v>4151.45</v>
+        <v>4600.42</v>
       </c>
       <c r="N10" t="n">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
       <c r="O10" t="n">
-        <v>19.02</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="11">
@@ -890,43 +890,43 @@
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>0.891</v>
+        <v>0.996</v>
       </c>
       <c r="D11" t="n">
-        <v>0.322</v>
+        <v>0.39</v>
       </c>
       <c r="E11" t="n">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.432</v>
+        <v>0.491</v>
       </c>
       <c r="G11" t="n">
-        <v>0.594</v>
+        <v>0.906</v>
       </c>
       <c r="H11" t="n">
-        <v>0.34</v>
+        <v>0.346</v>
       </c>
       <c r="I11" t="n">
-        <v>0.29</v>
+        <v>0.306</v>
       </c>
       <c r="J11" t="n">
-        <v>0.842</v>
+        <v>0.987</v>
       </c>
       <c r="K11" t="n">
-        <v>0.431</v>
+        <v>0.463</v>
       </c>
       <c r="L11" t="n">
-        <v>0.299</v>
+        <v>0.333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.266</v>
+        <v>0.298</v>
       </c>
       <c r="N11" t="n">
-        <v>0.236</v>
+        <v>0.288</v>
       </c>
       <c r="O11" t="n">
-        <v>0.389</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="12">
@@ -937,43 +937,43 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="D12" t="n">
-        <v>9549.12</v>
+        <v>9285.73</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F12" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>14.67</v>
+        <v>8.61</v>
       </c>
       <c r="H12" t="n">
-        <v>6043.15</v>
+        <v>5430.34</v>
       </c>
       <c r="I12" t="n">
-        <v>1211.32</v>
+        <v>1094.05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="K12" t="n">
-        <v>4627.27</v>
+        <v>4211.35</v>
       </c>
       <c r="L12" t="n">
-        <v>0.68</v>
+        <v>0.56</v>
       </c>
       <c r="M12" t="n">
-        <v>9269.36</v>
+        <v>8841.53</v>
       </c>
       <c r="N12" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="O12" t="n">
-        <v>22.74</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="13">
@@ -984,43 +984,43 @@
         <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>14.93</v>
+        <v>16.15</v>
       </c>
       <c r="D13" t="n">
-        <v>30930.71</v>
+        <v>38408.84</v>
       </c>
       <c r="E13" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>9.74</v>
+        <v>12.13</v>
       </c>
       <c r="G13" t="n">
-        <v>91.59</v>
+        <v>137.21</v>
       </c>
       <c r="H13" t="n">
-        <v>16865.56</v>
+        <v>16937.76</v>
       </c>
       <c r="I13" t="n">
-        <v>3046.78</v>
+        <v>3221.55</v>
       </c>
       <c r="J13" t="n">
-        <v>7.37</v>
+        <v>8.89</v>
       </c>
       <c r="K13" t="n">
-        <v>18823.06</v>
+        <v>22339.51</v>
       </c>
       <c r="L13" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="M13" t="n">
-        <v>22492.28</v>
+        <v>26815.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.98</v>
+        <v>4.58</v>
       </c>
       <c r="O13" t="n">
-        <v>82.95</v>
+        <v>102.41</v>
       </c>
     </row>
   </sheetData>
